--- a/Retinotopy_custom.xlsx
+++ b/Retinotopy_custom.xlsx
@@ -28,34 +28,34 @@
     <t>size</t>
   </si>
   <si>
-    <t>[-5, 35]</t>
+    <t>[15, 30]</t>
   </si>
   <si>
     <t>[40, 40]</t>
   </si>
   <si>
-    <t>[30, 35]</t>
-  </si>
-  <si>
-    <t>[65, 35]</t>
-  </si>
-  <si>
-    <t>[-5, 0]</t>
-  </si>
-  <si>
-    <t>[30, 0]</t>
-  </si>
-  <si>
-    <t>[65, 0]</t>
-  </si>
-  <si>
-    <t>[-5, -35]</t>
-  </si>
-  <si>
-    <t>[30, -35]</t>
-  </si>
-  <si>
-    <t>[65, -35]</t>
+    <t>[45, 30]</t>
+  </si>
+  <si>
+    <t>[75, 30]</t>
+  </si>
+  <si>
+    <t>[15, 0]</t>
+  </si>
+  <si>
+    <t>[45, 0]</t>
+  </si>
+  <si>
+    <t>[75, 0]</t>
+  </si>
+  <si>
+    <t>[15, -30]</t>
+  </si>
+  <si>
+    <t>[45, -30]</t>
+  </si>
+  <si>
+    <t>[75, -30]</t>
   </si>
 </sst>
 </file>
@@ -412,10 +412,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -426,10 +426,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -440,10 +440,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -454,10 +454,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -468,10 +468,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -482,10 +482,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -496,10 +496,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -510,10 +510,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -524,10 +524,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>

--- a/Retinotopy_custom.xlsx
+++ b/Retinotopy_custom.xlsx
@@ -28,34 +28,34 @@
     <t>size</t>
   </si>
   <si>
-    <t>[15, 30]</t>
-  </si>
-  <si>
-    <t>[40, 40]</t>
-  </si>
-  <si>
-    <t>[45, 30]</t>
-  </si>
-  <si>
-    <t>[75, 30]</t>
-  </si>
-  <si>
-    <t>[15, 0]</t>
-  </si>
-  <si>
-    <t>[45, 0]</t>
-  </si>
-  <si>
-    <t>[75, 0]</t>
-  </si>
-  <si>
-    <t>[15, -30]</t>
-  </si>
-  <si>
-    <t>[45, -30]</t>
-  </si>
-  <si>
-    <t>[75, -30]</t>
+    <t>[-50, 50]</t>
+  </si>
+  <si>
+    <t>[30, 30]</t>
+  </si>
+  <si>
+    <t>[-30, 50]</t>
+  </si>
+  <si>
+    <t>[-10, 50]</t>
+  </si>
+  <si>
+    <t>[-50, 30]</t>
+  </si>
+  <si>
+    <t>[-30, 30]</t>
+  </si>
+  <si>
+    <t>[-10, 30]</t>
+  </si>
+  <si>
+    <t>[-50, 10]</t>
+  </si>
+  <si>
+    <t>[-30, 10]</t>
+  </si>
+  <si>
+    <t>[-10, 10]</t>
   </si>
 </sst>
 </file>
